--- a/homeaharaa_Automation/src/main/resources/SellingPRICEOFEACHPRODUCT.xlsx
+++ b/homeaharaa_Automation/src/main/resources/SellingPRICEOFEACHPRODUCT.xlsx
@@ -12,235 +12,115 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
-    <sheet name="UTENSILS" sheetId="9" r:id="rId1"/>
+    <sheet name="Snacks1" sheetId="10" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="74">
-  <si>
-    <t>Cost</t>
-  </si>
-  <si>
-    <t>WEIGHT (in kgs)</t>
-  </si>
-  <si>
-    <t>Tea spoon (H.W)</t>
-  </si>
-  <si>
-    <t>0.020kg</t>
-  </si>
-  <si>
-    <t>Tea spoon (L.W)</t>
-  </si>
-  <si>
-    <t>Coffee spoon</t>
-  </si>
-  <si>
-    <t>Desert Spoon</t>
-  </si>
-  <si>
-    <t>0.040kg</t>
-  </si>
-  <si>
-    <t>Pickle spoon (s)</t>
-  </si>
-  <si>
-    <t>Kristina BM plate</t>
-  </si>
-  <si>
-    <t>0.600gm</t>
-  </si>
-  <si>
-    <t>L.W Karaikudi Vilaku</t>
-  </si>
-  <si>
-    <t>0.920gm</t>
-  </si>
-  <si>
-    <t>H.W Karaikudi Vilaku</t>
-  </si>
-  <si>
-    <t>Kristina water jug</t>
-  </si>
-  <si>
-    <t>0.460gm</t>
-  </si>
-  <si>
-    <t>Priyanka laser dabba</t>
-  </si>
-  <si>
-    <t>0.620g</t>
-  </si>
-  <si>
-    <t>Sripal kuvalai (1lt)</t>
-  </si>
-  <si>
-    <t>0.200gm</t>
-  </si>
-  <si>
-    <t>S.S Padi 1 L.W ( 250ml)</t>
-  </si>
-  <si>
-    <t>0.060gm</t>
-  </si>
-  <si>
-    <t>S.S Padi 2 L.W (500ml)</t>
-  </si>
-  <si>
-    <t>0.100gm</t>
-  </si>
-  <si>
-    <t>S.S Padi 3 L.W (750ml)</t>
-  </si>
-  <si>
-    <t>0.140gm</t>
-  </si>
-  <si>
-    <t>S.S Padi 4 L.W (1ltr)</t>
-  </si>
-  <si>
-    <t>0.260gm</t>
-  </si>
-  <si>
-    <t>Tall boy Square plate</t>
-  </si>
-  <si>
-    <t>0.540gm</t>
-  </si>
-  <si>
-    <t>Tall boy China plate</t>
-  </si>
-  <si>
-    <t>Kristina Copper.Bottom Kadai No.3</t>
-  </si>
-  <si>
-    <t>0.660gm</t>
-  </si>
-  <si>
-    <t>Swathi kumcha</t>
-  </si>
-  <si>
-    <t>0.400gm</t>
-  </si>
-  <si>
-    <t>Deep china plate</t>
-  </si>
-  <si>
-    <t>0.860gm</t>
-  </si>
-  <si>
-    <t>Laser Buffet plate</t>
-  </si>
-  <si>
-    <t>0.320gm</t>
-  </si>
-  <si>
-    <t>Cop SS Handi</t>
-  </si>
-  <si>
-    <t>SS madras handi big</t>
-  </si>
-  <si>
-    <t>0.560gm</t>
-  </si>
-  <si>
-    <t>Coffee 2 in 1 filter</t>
-  </si>
-  <si>
-    <t>Tea cup 90ml</t>
-  </si>
-  <si>
-    <t>IB S.S. Kadai</t>
-  </si>
-  <si>
-    <t>0.940gm</t>
-  </si>
-  <si>
-    <t>Lotus Bathi stand</t>
-  </si>
-  <si>
-    <t>Regular Mukkali 10</t>
-  </si>
-  <si>
-    <t>1.760kg</t>
-  </si>
-  <si>
-    <t>Idiyappam 3 plate</t>
-  </si>
-  <si>
-    <t>0.620gm</t>
-  </si>
-  <si>
-    <t>Soup Bowl Plate big</t>
-  </si>
-  <si>
-    <t>Soup bowl plate small</t>
-  </si>
-  <si>
-    <t>0.160gm</t>
-  </si>
-  <si>
-    <t>Leaf vilaku</t>
-  </si>
-  <si>
-    <t>Dhokla stand 5 plate9</t>
-  </si>
-  <si>
-    <t>1.060kg</t>
-  </si>
-  <si>
-    <t>pooja bell</t>
-  </si>
-  <si>
-    <t>0.800gm</t>
-  </si>
-  <si>
-    <t>Coffee filter brass</t>
-  </si>
-  <si>
-    <t>0.180gm</t>
-  </si>
-  <si>
-    <t>Vid spl Mukkali 4</t>
-  </si>
-  <si>
-    <t>0.300gm</t>
-  </si>
-  <si>
-    <t>AJ Lotus Deepam</t>
-  </si>
-  <si>
-    <t>0.50gm</t>
-  </si>
-  <si>
-    <t>Wood Handle Thubakali</t>
-  </si>
-  <si>
-    <t>ASH SS Coffee filter 7</t>
-  </si>
-  <si>
-    <t>0.220gm</t>
-  </si>
-  <si>
-    <t>Pra Brass Spice box</t>
-  </si>
-  <si>
-    <t>Marc Brass coated water tumbler1</t>
-  </si>
-  <si>
-    <t>Brass classic dabara set</t>
-  </si>
-  <si>
-    <t>Mahendra laser L.W N.P Kumcha</t>
-  </si>
-  <si>
-    <t>0.360gm</t>
-  </si>
-  <si>
-    <t>Item Name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+  <si>
+    <t>NAME OF THE ITEMS</t>
+  </si>
+  <si>
+    <t>250 grams</t>
+  </si>
+  <si>
+    <t>500 grams</t>
+  </si>
+  <si>
+    <t>1 kg</t>
+  </si>
+  <si>
+    <t>Andra murukku</t>
+  </si>
+  <si>
+    <t>Avul(Flattened rice) mixture</t>
+  </si>
+  <si>
+    <t>Butter murukku</t>
+  </si>
+  <si>
+    <t>cashew nut onion pakoda</t>
+  </si>
+  <si>
+    <t>cashew pakoda</t>
+  </si>
+  <si>
+    <t>Finger chips</t>
+  </si>
+  <si>
+    <t>Garlic mixture</t>
+  </si>
+  <si>
+    <t>Hand murukku</t>
+  </si>
+  <si>
+    <t>Kara boonthi</t>
+  </si>
+  <si>
+    <t>Karasev</t>
+  </si>
+  <si>
+    <t>Maida cake</t>
+  </si>
+  <si>
+    <t>masala kadalai</t>
+  </si>
+  <si>
+    <t>Mixture</t>
+  </si>
+  <si>
+    <t>Moong dal</t>
+  </si>
+  <si>
+    <t>Navadaniyam</t>
+  </si>
+  <si>
+    <t>Oma podi</t>
+  </si>
+  <si>
+    <t>Onion pakoda</t>
+  </si>
+  <si>
+    <t>Ottu pakoda</t>
+  </si>
+  <si>
+    <t>Pavakkai chips</t>
+  </si>
+  <si>
+    <t>Pepper cashewnut</t>
+  </si>
+  <si>
+    <t>Potato chips</t>
+  </si>
+  <si>
+    <t>Puthina mixture</t>
+  </si>
+  <si>
+    <t>Ragi mixture</t>
+  </si>
+  <si>
+    <t>Ragi pakoda</t>
+  </si>
+  <si>
+    <t>Salt cashewnut</t>
+  </si>
+  <si>
+    <t>Sesame murukku</t>
+  </si>
+  <si>
+    <t>Special mixture</t>
+  </si>
+  <si>
+    <t>Sweet mixture</t>
+  </si>
+  <si>
+    <t>Thattai</t>
+  </si>
+  <si>
+    <t>Vathal</t>
   </si>
 </sst>
 </file>
@@ -260,7 +140,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -268,12 +147,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -286,16 +171,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -306,7 +191,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -528,509 +413,469 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C906"/>
+  <dimension ref="A1:D780"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="34.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="14.42578125" style="1"/>
+    <col min="1" max="1" width="26.42578125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="14.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>28</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="C2" s="1">
+        <v>370</v>
+      </c>
+      <c r="D2" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" s="1">
-        <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="C3" s="1">
+        <v>410</v>
+      </c>
+      <c r="D3" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="C4" s="1">
+        <v>370</v>
+      </c>
+      <c r="D4" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="C5" s="1">
+        <v>410</v>
+      </c>
+      <c r="D5" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>26</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+      <c r="C6" s="1">
+        <v>410</v>
+      </c>
+      <c r="D6" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B7" s="1">
-        <v>640</v>
-      </c>
-      <c r="C7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="1">
+        <v>410</v>
+      </c>
+      <c r="D7" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1">
+        <v>195</v>
+      </c>
+      <c r="C8" s="1">
+        <v>390</v>
+      </c>
+      <c r="D8" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B8" s="1">
-        <v>2620</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B9" s="1">
+        <v>195</v>
+      </c>
+      <c r="C9" s="1">
+        <v>390</v>
+      </c>
+      <c r="D9" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B10" s="1">
+        <v>185</v>
+      </c>
+      <c r="C10" s="1">
+        <v>370</v>
+      </c>
+      <c r="D10" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="1">
-        <v>2700</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B11" s="1">
+        <v>185</v>
+      </c>
+      <c r="C11" s="1">
+        <v>370</v>
+      </c>
+      <c r="D11" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="1">
-        <v>420</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B12" s="1">
+        <v>185</v>
+      </c>
+      <c r="C12" s="1">
+        <v>370</v>
+      </c>
+      <c r="D12" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="1">
+        <v>185</v>
+      </c>
+      <c r="C13" s="1">
+        <v>370</v>
+      </c>
+      <c r="D13" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="1">
-        <v>960</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B14" s="1">
+        <v>185</v>
+      </c>
+      <c r="C14" s="1">
+        <v>370</v>
+      </c>
+      <c r="D14" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B15" s="1">
+        <v>200</v>
+      </c>
+      <c r="C15" s="1">
+        <v>400</v>
+      </c>
+      <c r="D15" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="1">
-        <v>280</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B16" s="1">
+        <v>205</v>
+      </c>
+      <c r="C16" s="1">
+        <v>410</v>
+      </c>
+      <c r="D16" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="B17" s="1">
+        <v>185</v>
+      </c>
+      <c r="C17" s="1">
+        <v>370</v>
+      </c>
+      <c r="D17" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="1">
-        <v>70</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B18" s="1">
+        <v>185</v>
+      </c>
+      <c r="C18" s="1">
+        <v>370</v>
+      </c>
+      <c r="D18" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B19" s="1">
+        <v>185</v>
+      </c>
+      <c r="C19" s="1">
+        <v>370</v>
+      </c>
+      <c r="D19" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="1">
-        <v>120</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B20" s="1">
+        <v>185</v>
+      </c>
+      <c r="C20" s="1">
+        <v>370</v>
+      </c>
+      <c r="D20" s="1">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B21" s="1">
+        <v>650</v>
+      </c>
+      <c r="C21" s="1">
+        <v>1300</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="1">
-        <v>160</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B22" s="1">
+        <v>205</v>
+      </c>
+      <c r="C22" s="1">
+        <v>410</v>
+      </c>
+      <c r="D22" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B23" s="1">
+        <v>195</v>
+      </c>
+      <c r="C23" s="1">
+        <v>390</v>
+      </c>
+      <c r="D23" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1">
-        <v>292</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B24" s="1">
+        <v>195</v>
+      </c>
+      <c r="C24" s="1">
+        <v>390</v>
+      </c>
+      <c r="D24" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="B25" s="1">
+        <v>195</v>
+      </c>
+      <c r="C25" s="1">
+        <v>390</v>
+      </c>
+      <c r="D25" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="1">
-        <v>520</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B26" s="1">
+        <v>625</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1250</v>
+      </c>
+      <c r="D26" s="1">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="B27" s="1">
+        <v>195</v>
+      </c>
+      <c r="C27" s="1">
+        <v>390</v>
+      </c>
+      <c r="D27" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="1">
-        <v>360</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="B28" s="1">
+        <v>195</v>
+      </c>
+      <c r="C28" s="1">
+        <v>390</v>
+      </c>
+      <c r="D28" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="1">
-        <v>1040</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B29" s="1">
+        <v>205</v>
+      </c>
+      <c r="C29" s="1">
+        <v>410</v>
+      </c>
+      <c r="D29" s="1">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B30" s="1">
+        <v>195</v>
+      </c>
+      <c r="C30" s="1">
+        <v>390</v>
+      </c>
+      <c r="D30" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="1">
-        <v>370</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B21" s="1">
-        <v>280</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B22" s="1">
-        <v>330</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B23" s="1">
-        <v>884</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="1">
-        <v>840</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="1">
-        <v>730</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="1">
-        <v>544</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1280</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="1">
-        <v>414</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B29" s="1">
-        <v>3710</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B30" s="1">
-        <v>732</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="B31" s="1">
-        <v>730</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B32" s="1">
-        <v>500</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="1">
-        <v>418</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="1">
-        <v>1520</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" s="1">
-        <v>690</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B36" s="1">
-        <v>828</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="1">
-        <v>800</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B38" s="1">
-        <v>232</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="1">
-        <v>1160</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="1">
-        <v>430</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="1">
-        <v>7800</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="1">
-        <v>400</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B43" s="1">
-        <v>712</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B44" s="1">
-        <v>280</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="46" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
+        <v>175</v>
+      </c>
+      <c r="C31" s="1">
+        <v>350</v>
+      </c>
+      <c r="D31" s="1">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="33" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="34" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="35" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="36" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="37" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="38" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="39" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="40" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="41" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="42" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="43" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="44" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="45" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="46" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="47" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="48" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="49" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="50" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="51" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -1763,132 +1608,6 @@
     <row r="778" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="779" ht="12.75" x14ac:dyDescent="0.2"/>
     <row r="780" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
